--- a/Assets/ProblemFile.xlsx
+++ b/Assets/ProblemFile.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\MathGame\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13010"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Problems" sheetId="1" r:id="rId4"/>
+    <sheet name="Problems" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Problem</t>
   </si>
@@ -29,22 +37,59 @@
   </si>
   <si>
     <t>ResultNumber</t>
+  </si>
+  <si>
+    <t>문제 1번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,39 +98,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -275,20 +332,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -308,15 +370,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -324,7 +398,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -332,7 +406,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -340,7 +414,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -348,7 +422,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -356,7 +430,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -364,7 +438,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -372,7 +446,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -380,7 +454,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -388,7 +462,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -396,7 +470,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -404,7 +478,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -412,7 +486,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -420,7 +494,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -428,7 +502,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -436,7 +510,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -444,7 +518,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -452,7 +526,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -460,7 +534,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -468,7 +542,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -476,7 +550,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -484,7 +558,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -492,7 +566,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -500,7 +574,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -508,7 +582,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -516,7 +590,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -524,7 +598,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -532,7 +606,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -540,7 +614,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -548,7 +622,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -556,7 +630,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -564,7 +638,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -572,7 +646,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -580,7 +654,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -588,7 +662,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -596,7 +670,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -604,7 +678,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -612,7 +686,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -620,7 +694,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -628,7 +702,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -636,7 +710,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -644,7 +718,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -652,7 +726,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -660,7 +734,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -668,7 +742,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -676,7 +750,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -684,7 +758,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -692,7 +766,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -700,7 +774,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -708,7 +782,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -716,7 +790,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -724,7 +798,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -732,7 +806,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -741,6 +815,7 @@
       <c r="F55" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/ProblemFile.xlsx
+++ b/Assets/ProblemFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Problem</t>
   </si>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>x+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 2번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y+1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +361,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -391,12 +407,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -817,5 +845,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>